--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori2/42/word_level_predictions_42.xlsx
@@ -4298,210 +4298,210 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="inlineStr">
+      <c r="D75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6534,364 +6534,364 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
+      <c r="A118" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C118" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E118" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" s="2" t="inlineStr">
         <is>
           <t>arrange</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>repairs</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E124" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F124" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -14045,7 +14045,7 @@
       </c>
       <c r="F262" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G262" s="2" t="b">
@@ -14069,7 +14069,7 @@
       </c>
       <c r="L262" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F263" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G263" s="2" t="b">
@@ -14121,7 +14121,7 @@
       </c>
       <c r="L263" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="F264" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G264" s="2" t="b">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="L264" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14357,7 +14357,7 @@
       </c>
       <c r="F268" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G268" s="2" t="b">
@@ -14381,7 +14381,7 @@
       </c>
       <c r="L268" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="F269" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G269" s="2" t="b">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="L269" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="F270" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G270" s="2" t="b">
@@ -14485,7 +14485,7 @@
       </c>
       <c r="L270" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14565,7 +14565,7 @@
       </c>
       <c r="F272" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G272" s="2" t="b">
@@ -14589,7 +14589,7 @@
       </c>
       <c r="L272" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="F273" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G273" s="2" t="b">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="L273" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -23954,364 +23954,364 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="n">
+      <c r="A453" t="n">
         <v>37</v>
       </c>
-      <c r="B453" s="2" t="inlineStr">
+      <c r="B453" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" s="2" t="inlineStr">
+      <c r="C453" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" s="2" t="n">
+      <c r="D453" t="n">
         <v>8</v>
       </c>
-      <c r="E453" s="2" t="inlineStr">
+      <c r="E453" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J453" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L453" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G453" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K453" t="b">
+        <v>1</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="n">
+      <c r="A454" t="n">
         <v>37</v>
       </c>
-      <c r="B454" s="2" t="inlineStr">
+      <c r="B454" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" s="2" t="inlineStr">
+      <c r="C454" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" s="2" t="n">
+      <c r="D454" t="n">
         <v>9</v>
       </c>
-      <c r="E454" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J454" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L454" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G454" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K454" t="b">
+        <v>1</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="n">
+      <c r="A455" t="n">
         <v>37</v>
       </c>
-      <c r="B455" s="2" t="inlineStr">
+      <c r="B455" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" s="2" t="inlineStr">
+      <c r="C455" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" s="2" t="n">
+      <c r="D455" t="n">
         <v>10</v>
       </c>
-      <c r="E455" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J455" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L455" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G455" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K455" t="b">
+        <v>1</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="n">
+      <c r="A456" t="n">
         <v>37</v>
       </c>
-      <c r="B456" s="2" t="inlineStr">
+      <c r="B456" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" s="2" t="inlineStr">
+      <c r="C456" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" s="2" t="n">
+      <c r="D456" t="n">
         <v>11</v>
       </c>
-      <c r="E456" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J456" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L456" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G456" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K456" t="b">
+        <v>1</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>37</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>12</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>37</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
+      <c r="D458" t="n">
         <v>13</v>
       </c>
-      <c r="E458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>37</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>14</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
+      <c r="F459" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori2/42/word_level_predictions_42.xlsx
@@ -4298,210 +4298,210 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" t="n">
         <v>6</v>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D75" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" s="2" t="inlineStr">
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I75" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" t="n">
         <v>6</v>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I76" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
         <v>6</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" t="n">
         <v>2</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>6</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>3</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6534,364 +6534,364 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" t="n">
         <v>9</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" t="n">
         <v>7</v>
       </c>
-      <c r="E118" s="2" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" t="n">
         <v>9</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" t="n">
         <v>8</v>
       </c>
-      <c r="E119" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>9</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>9</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>9</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" t="n">
         <v>10</v>
       </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" t="n">
         <v>9</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C122" s="2" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>arrange</t>
         </is>
       </c>
-      <c r="D122" s="2" t="n">
+      <c r="D122" t="n">
         <v>11</v>
       </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>9</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" t="n">
         <v>12</v>
       </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>9</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>repairs</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" t="n">
         <v>13</v>
       </c>
-      <c r="E124" s="2" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F124" s="2" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -14045,7 +14045,7 @@
       </c>
       <c r="F262" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G262" s="2" t="b">
@@ -14069,7 +14069,7 @@
       </c>
       <c r="L262" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F263" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G263" s="2" t="b">
@@ -14121,7 +14121,7 @@
       </c>
       <c r="L263" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="F264" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G264" s="2" t="b">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="L264" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14357,7 +14357,7 @@
       </c>
       <c r="F268" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G268" s="2" t="b">
@@ -14381,7 +14381,7 @@
       </c>
       <c r="L268" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="F269" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G269" s="2" t="b">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="L269" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="F270" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G270" s="2" t="b">
@@ -14485,7 +14485,7 @@
       </c>
       <c r="L270" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14565,7 +14565,7 @@
       </c>
       <c r="F272" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G272" s="2" t="b">
@@ -14589,7 +14589,7 @@
       </c>
       <c r="L272" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="F273" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G273" s="2" t="b">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="L273" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23954,364 +23954,364 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="n">
+      <c r="A453" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B453" t="inlineStr">
+      <c r="B453" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
+      <c r="C453" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" t="n">
+      <c r="D453" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E453" t="inlineStr">
+      <c r="E453" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G453" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K453" t="b">
-        <v>1</v>
-      </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F453" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J453" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L453" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="n">
+      <c r="A454" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B454" t="inlineStr">
+      <c r="B454" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr">
+      <c r="C454" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" t="n">
+      <c r="D454" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G454" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K454" t="b">
-        <v>1</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E454" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J454" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L454" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="n">
+      <c r="A455" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B455" t="inlineStr">
+      <c r="B455" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
+      <c r="C455" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" t="n">
+      <c r="D455" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G455" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K455" t="b">
-        <v>1</v>
-      </c>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E455" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J455" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L455" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="n">
+      <c r="A456" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B456" t="inlineStr">
+      <c r="B456" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
+      <c r="C456" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" t="n">
+      <c r="D456" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G456" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K456" t="b">
-        <v>1</v>
-      </c>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E456" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J456" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L456" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
+      <c r="E457" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" t="n">
+      <c r="D458" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
+      <c r="E458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="n">
+      <c r="A459" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B459" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
+      <c r="C459" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E459" t="inlineStr">
+      <c r="E459" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" t="inlineStr">
+      <c r="F459" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
